--- a/logbool.xlsx
+++ b/logbool.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,24 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>タイムスタンプ</t>
+          <t>日時</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>処理内容</t>
+          <t>カテゴリ</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
-          <t>2025-06-27 12:16:12</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ログ追記成功！</t>
+          <t>内容</t>
         </is>
       </c>
     </row>
